--- a/biology/Botanique/Épilobe_de_Lamy/Épilobe_de_Lamy.xlsx
+++ b/biology/Botanique/Épilobe_de_Lamy/Épilobe_de_Lamy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_de_Lamy</t>
+          <t>Épilobe_de_Lamy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epilobium tetragonum, l’Épilobe à quatre angles, Épilobe à tiges carrées ou Épilobe à tiges quadrangulaires[2], est une espèce de plantes à fleurs de la famille des Onagraceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epilobium tetragonum, l’Épilobe à quatre angles, Épilobe à tiges carrées ou Épilobe à tiges quadrangulaires, est une espèce de plantes à fleurs de la famille des Onagraceae.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_de_Lamy</t>
+          <t>Épilobe_de_Lamy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces et variétés selon GBIF       (30 avril 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés selon GBIF       (30 avril 2021) :
 Epilobium tetragonum subsp. nothosemiadnatum (Borbás) B.Bock
 Epilobium tetragonum subsp. tetragonum
 Epilobium tetragonum var. billardiereanum (DC.) H.Lev., 1894
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_de_Lamy</t>
+          <t>Épilobe_de_Lamy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Epilobium tetragonum L.[3].
-Epilobium tetragonum a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Epilobium tetragonum L..
+Epilobium tetragonum a pour synonymes :
 Chamaenerion ramosissimum Moench
 Chamaenerion tetragonum (L.) Moench, 1794
 Chamaenerion tetragonum (L.) Scop.
